--- a/SourceCode/2024/Feb 2024/Anusha k/Task22.a/task22.xlsx
+++ b/SourceCode/2024/Feb 2024/Anusha k/Task22.a/task22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e07be0ad463409e5/Documents/GitHub/RPA-Developer-in-30-Days/SourceCode/2024/Feb 2024/Anusha k/Task22.a/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_F25DC773A252ABDACC1048B4291E6F785BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E4E9A8C-7037-4300-AAB3-3AA18F13214B}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="11_F25DC773A252ABDACC1048B4291E6F785BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DD406BD-7794-453E-9440-8C7500F66DE5}"/>
   <x:bookViews>
-    <x:workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="0" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView xWindow="2205" yWindow="2205" windowWidth="15375" windowHeight="7785" firstSheet="0" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <x:si>
     <x:t>names</x:t>
   </x:si>
@@ -38,9 +38,6 @@
     <x:t>status</x:t>
   </x:si>
   <x:si>
-    <x:t>anusha</x:t>
-  </x:si>
-  <x:si>
     <x:t>sirisha</x:t>
   </x:si>
   <x:si>
@@ -53,7 +50,19 @@
     <x:t>mahendra</x:t>
   </x:si>
   <x:si>
-    <x:t>TableName</x:t>
+    <x:t>SIRISHA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>successfully completed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SRAVANI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SAIRAM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MAHENDRA</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -115,6 +124,10 @@
     </x:ext>
   </x:extLst>
 </x:styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -383,10 +396,10 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:C6"/>
+  <x:dimension ref="A1:C5"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
-      <x:selection activeCell="A6" sqref="A6"/>
+      <x:selection activeCell="C1" sqref="C1"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,11 +433,6 @@
     <x:row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A5" s="0" t="s">
         <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <x:c r="A6" s="0" t="s">
-        <x:v>7</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -444,20 +452,64 @@
   <x:dimension ref="A1:C1"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="C1" sqref="C1"/>
+      <x:selection activeCell="B1" sqref="B1"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <x:sheetData>
     <x:row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A1" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
         <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:3">
+      <x:c r="A2" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:3">
+      <x:c r="A3" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:3">
+      <x:c r="A4" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:3">
+      <x:c r="A5" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>8</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
